--- a/data/trans_orig/P25D_R_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4680</v>
+        <v>5100</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28073</v>
+        <v>32028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0326794759028454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01147654230185567</v>
+        <v>0.01250747327041945</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06884194114198665</v>
+        <v>0.0785387994259556</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15520</v>
+        <v>15208</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01094006547377827</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04281353143789042</v>
+        <v>0.04195262661930972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>17292</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7366</v>
+        <v>6552</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33679</v>
+        <v>33672</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02244872805061296</v>
+        <v>0.02244872805061295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009561924591385934</v>
+        <v>0.00850544379923973</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04372128995435045</v>
+        <v>0.04371246202628827</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>394467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>379720</v>
+        <v>375765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403113</v>
+        <v>402693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9673205240971547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9311580588580133</v>
+        <v>0.921461200574044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9885234576981443</v>
+        <v>0.9874925267295804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>205</v>
@@ -833,16 +833,16 @@
         <v>358546</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346992</v>
+        <v>347304</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9890599345262219</v>
+        <v>0.9890599345262217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9571864685621105</v>
+        <v>0.9580473733806898</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>753013</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736626</v>
+        <v>736633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762939</v>
+        <v>763753</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9775512719493871</v>
+        <v>0.977551271949387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9562787100456496</v>
+        <v>0.9562875379737119</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9904380754086142</v>
+        <v>0.9914945562007605</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>5808</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1576</v>
+        <v>1276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14422</v>
+        <v>13961</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01221260338922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003313559402278898</v>
+        <v>0.002682490113671818</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03032404598758859</v>
+        <v>0.02935485237851277</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -979,19 +979,19 @@
         <v>6626</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2187</v>
+        <v>2352</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14120</v>
+        <v>15757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01322312569145557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004364627573885544</v>
+        <v>0.004694023594300891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02817851710757633</v>
+        <v>0.0314465863284782</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1000,19 +1000,19 @@
         <v>12434</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6168</v>
+        <v>6423</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22822</v>
+        <v>25102</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01273104249138386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006315163892294047</v>
+        <v>0.006576057825089691</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02336639511485456</v>
+        <v>0.02570058355195252</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>469801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>461187</v>
+        <v>461648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474033</v>
+        <v>474333</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9877873966107801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9696759540124112</v>
+        <v>0.9706451476214873</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966864405977212</v>
+        <v>0.9973175098863282</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>455</v>
@@ -1050,19 +1050,19 @@
         <v>494457</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>486963</v>
+        <v>485326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498896</v>
+        <v>498731</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9867768743085443</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9718214828924235</v>
+        <v>0.9685534136715218</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9956353724261143</v>
+        <v>0.9953059764056992</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>752</v>
@@ -1071,19 +1071,19 @@
         <v>964258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>953870</v>
+        <v>951590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>970524</v>
+        <v>970269</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9872689575086161</v>
+        <v>0.9872689575086162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9766336048851455</v>
+        <v>0.9742994164480476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.993684836107706</v>
+        <v>0.9934239421749104</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>12124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5834</v>
+        <v>5876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21168</v>
+        <v>21919</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01956640519459573</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009415473404622685</v>
+        <v>0.009482871799499974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03416011649819905</v>
+        <v>0.03537268015636347</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1196,19 +1196,19 @@
         <v>5284</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2266</v>
+        <v>2287</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10374</v>
+        <v>10599</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00852491665992699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003655906944498944</v>
+        <v>0.003690581976220274</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01673786494245316</v>
+        <v>0.01710145537337129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1217,19 +1217,19 @@
         <v>17408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10575</v>
+        <v>10312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27279</v>
+        <v>27693</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01404509251575038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008532402409828346</v>
+        <v>0.008320026918857056</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02200912700287622</v>
+        <v>0.02234283076491847</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>607535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598491</v>
+        <v>597740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>613825</v>
+        <v>613783</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9804335948054043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9658398835018017</v>
+        <v>0.9646273198436364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905845265953775</v>
+        <v>0.9905171282005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>836</v>
@@ -1267,19 +1267,19 @@
         <v>614503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609413</v>
+        <v>609188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>617521</v>
+        <v>617500</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9914750833400731</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9832621350575467</v>
+        <v>0.9828985446266285</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963440930555011</v>
+        <v>0.9963094180237796</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1371</v>
@@ -1288,19 +1288,19 @@
         <v>1222037</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1212166</v>
+        <v>1211752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1228870</v>
+        <v>1229133</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9859549074842495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9779908729971241</v>
+        <v>0.9776571692350809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9914675975901717</v>
+        <v>0.9916799730811429</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>3488</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9328</v>
+        <v>9332</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005019251816990962</v>
+        <v>0.005019251816990963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001644315436523601</v>
+        <v>0.001642494253816913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01342197846809226</v>
+        <v>0.01342794799951599</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1413,19 +1413,19 @@
         <v>6627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3363</v>
+        <v>3288</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11956</v>
+        <v>11158</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.009010383002143466</v>
+        <v>0.009010383002143468</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004572635790372502</v>
+        <v>0.004470709850313131</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01625556592279192</v>
+        <v>0.01517091659276174</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1434,19 +1434,19 @@
         <v>10115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5457</v>
+        <v>5752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17415</v>
+        <v>17729</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.007071340231384835</v>
+        <v>0.007071340231384836</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003814720803989096</v>
+        <v>0.00402133434790408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01217444323978863</v>
+        <v>0.01239401188780906</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>691474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>685634</v>
+        <v>685630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>693819</v>
+        <v>693821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.994980748183009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9865780215319078</v>
+        <v>0.986572052000484</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983556845634765</v>
+        <v>0.998357505746183</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1128</v>
@@ -1484,19 +1484,19 @@
         <v>728851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>723522</v>
+        <v>724320</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>732115</v>
+        <v>732190</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9909896169978565</v>
+        <v>0.9909896169978566</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9837444340772079</v>
+        <v>0.9848290834072383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9954273642096274</v>
+        <v>0.9955292901496867</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1785</v>
@@ -1505,19 +1505,19 @@
         <v>1420326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1413026</v>
+        <v>1412712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1424984</v>
+        <v>1424689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9929286597686151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9878255567602121</v>
+        <v>0.987605988112191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.996185279196011</v>
+        <v>0.9959786656520959</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>6806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2875</v>
+        <v>2952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14629</v>
+        <v>13573</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01120573280797564</v>
+        <v>0.01120573280797563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004733053293107007</v>
+        <v>0.004861317486486941</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02408811474025476</v>
+        <v>0.02234927777009029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1633,16 +1633,16 @@
         <v>475</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4976</v>
+        <v>5372</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002909778548786903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0007824151274927893</v>
+        <v>0.0007823335780375655</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008200941856110559</v>
+        <v>0.008853534364317286</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1651,19 +1651,19 @@
         <v>8571</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4337</v>
+        <v>4372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16381</v>
+        <v>15553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007059581962928462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003571929319288077</v>
+        <v>0.003601240764068557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0134918776060175</v>
+        <v>0.01281037555383492</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>600523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>592700</v>
+        <v>593756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>604454</v>
+        <v>604377</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9887942671920242</v>
+        <v>0.9887942671920245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9759118852597448</v>
+        <v>0.9776507222299098</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.995266946706893</v>
+        <v>0.995138682513513</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>996</v>
@@ -1701,19 +1701,19 @@
         <v>605028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>601818</v>
+        <v>601422</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>606319</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9970902214512131</v>
+        <v>0.9970902214512133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9917990581438897</v>
+        <v>0.9911464656356826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9992175848725073</v>
+        <v>0.9992176664219623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1650</v>
@@ -1722,19 +1722,19 @@
         <v>1205552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1197742</v>
+        <v>1198570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1209786</v>
+        <v>1209751</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9929404180370714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9865081223939819</v>
+        <v>0.9871896244461649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9964280706807117</v>
+        <v>0.9963987592359317</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5244</v>
+        <v>6509</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002590879998620471</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01290404309210635</v>
+        <v>0.01601549580632371</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5003</v>
+        <v>3932</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00293068413749251</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01141030131153766</v>
+        <v>0.008967435573467214</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1868,19 +1868,19 @@
         <v>2338</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6369</v>
+        <v>6551</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002767230400580641</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.000725360641455649</v>
+        <v>0.0007279293289858087</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007538749020124036</v>
+        <v>0.007754038025385114</v>
       </c>
     </row>
     <row r="20">
@@ -1897,7 +1897,7 @@
         <v>405359</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>401168</v>
+        <v>399903</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>406412</v>
@@ -1906,7 +1906,7 @@
         <v>0.9974091200013796</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9870959569078934</v>
+        <v>0.9839845041936761</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>437193</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>433475</v>
+        <v>434546</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>438478</v>
@@ -1927,7 +1927,7 @@
         <v>0.9970693158625076</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9885896986884624</v>
+        <v>0.991032564426533</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1939,19 +1939,19 @@
         <v>842552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>838521</v>
+        <v>838339</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>844277</v>
+        <v>844275</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9972327695994193</v>
+        <v>0.9972327695994194</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9924612509798757</v>
+        <v>0.9922459619746148</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9992746393585444</v>
+        <v>0.9992720706710143</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2531</v>
+        <v>2341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0008416673790761439</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005455514868912107</v>
+        <v>0.005045965471033013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1588</v>
+        <v>1966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0005044088621492352</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002050875884604677</v>
+        <v>0.002539972720634935</v>
       </c>
     </row>
     <row r="23">
@@ -2119,7 +2119,7 @@
         <v>463547</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>461406</v>
+        <v>461596</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>463937</v>
@@ -2128,7 +2128,7 @@
         <v>0.9991583326209238</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.994544485131088</v>
+        <v>0.9949540345289669</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>773746</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>772548</v>
+        <v>772170</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>774136</v>
@@ -2149,7 +2149,7 @@
         <v>0.9994955911378507</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9979491241153955</v>
+        <v>0.9974600272793652</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         <v>42606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28576</v>
+        <v>28999</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64423</v>
+        <v>62198</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01209726462553055</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008113522734029804</v>
+        <v>0.008233774452440884</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0182918074504673</v>
+        <v>0.01766016724044937</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -2265,19 +2265,19 @@
         <v>25944</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17677</v>
+        <v>17216</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37860</v>
+        <v>37460</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.006958968628912842</v>
+        <v>0.006958968628912843</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004741705413575634</v>
+        <v>0.004617860481097255</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01015542746501573</v>
+        <v>0.01004805443916405</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -2286,19 +2286,19 @@
         <v>68550</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53718</v>
+        <v>50761</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90389</v>
+        <v>89719</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.009455079850977367</v>
+        <v>0.00945507985097737</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007409341588647454</v>
+        <v>0.007001526036621513</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01246733929657033</v>
+        <v>0.0123749508699859</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>3479357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3457540</v>
+        <v>3459765</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3493387</v>
+        <v>3492964</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9879027353744693</v>
+        <v>0.9879027353744695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9817081925495322</v>
+        <v>0.9823398327595505</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.99188647726597</v>
+        <v>0.9917662255475592</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5323</v>
@@ -2336,19 +2336,19 @@
         <v>3702126</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3690210</v>
+        <v>3690610</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3710393</v>
+        <v>3710854</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9930410313710869</v>
+        <v>0.9930410313710872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9898445725349845</v>
+        <v>0.9899519455608361</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9952582945864245</v>
+        <v>0.9953821395189028</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8659</v>
@@ -2357,19 +2357,19 @@
         <v>7181482</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7159643</v>
+        <v>7160313</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7196314</v>
+        <v>7199271</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9905449201490225</v>
+        <v>0.990544920149023</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9875326607034297</v>
+        <v>0.9876250491300141</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9925906584113525</v>
+        <v>0.9929984739633785</v>
       </c>
     </row>
     <row r="27">
